--- a/AAII_Financials/Quarterly/OPB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>OPB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>70000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>137900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>60200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>62300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-6400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-3100</v>
       </c>
       <c r="H15" s="3">
         <v>-3100</v>
       </c>
       <c r="I15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J15" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-3100</v>
       </c>
       <c r="K15" s="3">
         <v>-3100</v>
       </c>
       <c r="L15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M15" s="3">
         <v>-3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-6600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-3400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-3300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>57200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>47800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>50200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-68700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-50300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-32200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-30200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-30800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-30600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-37600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>33100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E23" s="3">
         <v>30300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4100</v>
       </c>
       <c r="J24" s="3">
         <v>4100</v>
       </c>
       <c r="K24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,12 +1660,12 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-9000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>68700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>50300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>32200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>30200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>30800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>30600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>37600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2052,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E41" s="3">
         <v>43300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>334400</v>
+      </c>
+      <c r="E42" s="3">
         <v>364700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>341000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>495600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>325400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>493400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>359700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>266000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>472200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>444500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>616400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>995700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>904400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E48" s="3">
         <v>57000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>365700</v>
+      </c>
+      <c r="E49" s="3">
         <v>366700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>367900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>369300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>370800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>372200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>373700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>375200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>376600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>378100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>379600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>381100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>382600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>380500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>56800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7992400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7771300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7857000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7687900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7180900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7395100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7193300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7297800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7486800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7328200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7676500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7983700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7882600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7709200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,23 +2840,26 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>39000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2733,8 +2869,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2934,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E61" s="3">
         <v>133200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>133100</v>
       </c>
       <c r="F61" s="3">
         <v>133100</v>
       </c>
       <c r="G61" s="3">
+        <v>133100</v>
+      </c>
+      <c r="H61" s="3">
         <v>133000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>132900</v>
       </c>
       <c r="I61" s="3">
         <v>132900</v>
       </c>
       <c r="J61" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K61" s="3">
         <v>132800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>132700</v>
       </c>
       <c r="L61" s="3">
         <v>132700</v>
       </c>
       <c r="M61" s="3">
+        <v>132700</v>
+      </c>
+      <c r="N61" s="3">
         <v>132600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>132500</v>
       </c>
       <c r="O61" s="3">
         <v>132500</v>
       </c>
       <c r="P61" s="3">
+        <v>132500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>132400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6893300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6688300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6795600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6639800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6140100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6358000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6160300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6275400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6463300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6305200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6674700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6998100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6956600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6765400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3195,10 +3362,10 @@
         <v>29100</v>
       </c>
       <c r="L70" s="3">
+        <v>29100</v>
+      </c>
+      <c r="M70" s="3">
         <v>26900</v>
-      </c>
-      <c r="M70" s="3">
-        <v>600</v>
       </c>
       <c r="N70" s="3">
         <v>600</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>305400</v>
+      </c>
+      <c r="E72" s="3">
         <v>289300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>271500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>267000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>260300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>271300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>266000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>254700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>245000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>243800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>223300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>205000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>197400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1053900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1032200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1019000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1011700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1007900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1003900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>993300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>994400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>996100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1001200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>985000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>925400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>943300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +3825,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3000</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -3661,10 +3859,10 @@
         <v>3000</v>
       </c>
       <c r="M83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N83" s="3">
         <v>6200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3100</v>
       </c>
       <c r="O83" s="3">
         <v>3100</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
         <v>106600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-651200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-309600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-114900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>229000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>31600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>43400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>103600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-224100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,19 +4380,20 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-4100</v>
       </c>
       <c r="G96" s="3">
         <v>-4100</v>
@@ -4172,11 +4405,11 @@
         <v>-4100</v>
       </c>
       <c r="J96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4190,10 +4423,13 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>-108200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>611500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>449800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-194600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>203800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-123700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-185300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>154000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-164200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-354900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>33000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>181600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>256300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>26700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>166900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-278600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>132300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>108800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-208500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-185100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-279800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>91000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>316700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>45400</v>
       </c>
     </row>
